--- a/src/js/collection-point.xlsx
+++ b/src/js/collection-point.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1580" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="-1580" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,331 +30,337 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
   <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Rangpuri</t>
+  </si>
+  <si>
+    <t>Professional Logistics Pvt.Ltd.</t>
+  </si>
+  <si>
+    <t>198, G/F Malikpur Kohi, Next to hero honda Service Station, Rangpuri, Mahipalpur EXT. New Delhi, Delhi – 110037</t>
+  </si>
+  <si>
+    <t>1800-102-5679</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Gurugram</t>
+  </si>
+  <si>
+    <t>J-171, New Palam Vihar Phase-1, Gurgaon, Gurugram, Haryana 122017</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Dhanbad</t>
+  </si>
+  <si>
+    <t>Sardar Patel Nagar, Dhanbad, Jharkhand – 826004</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>BH-122, Sector -70, Noida, Uttar Pradesh 201301</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Zonal office: HN-34 Kundli Nagar Basistha Chariali, Near Parbhat Apartment, Guwahati-781029</t>
+  </si>
+  <si>
+    <t>Contact: Rajkumar Puniya</t>
+  </si>
+  <si>
+    <t>info@packersmovers.com</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Plot-92,gala no.-01,Sector 19C Vashi Navi, Mumbai -400705</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Plot No-24,Sec No-4, Shikshak Colony, Near Spine City, Moshi Pradhikaran, Pune – 412105</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Cuttack</t>
+  </si>
+  <si>
+    <t>1st Floor Deltahouse, Rajendra Nagar, Madhupatna Cuttack, Bhubaneshwar</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>4, Block-3, 4th Shatter at 179, MPR Estates near Old check post Old Bowaenpally Secunderabad, Hyderabad – 50011</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>No.43 1st Floor 2nd main D.D.U.T.T.L. Yeshwantpur, Bangalore – 560022</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>Opp. Hindustan Lever Ltd, Sulthan, Bhathery road Boloor Mangalore (KA)-575003</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranchi, </t>
+  </si>
+  <si>
+    <t># 9810053907,9312377788</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>27, Sakthi Nagar Phase II, Sennerkuppam, Near Bisleri Water Plant, Chennai – 60056</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>A-81, 200 ft. By Pass, Heerapura, Jaipur, rajasthan – 302021</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Bokaro</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Guwahati</t>
+  </si>
+  <si>
+    <t>HN-34 Kundli Nagar Basistha Chariali, Near Parbhat Apartment, Guwahati-781029</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>S-317, Transport Nagar, Behind RTO Office, Lucknow, Uttar Pradesh 226012</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>284 AS-3 Scheme No – 78,vijay nagar Indore, Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Siliguri</t>
+  </si>
+  <si>
+    <t>Rajkumar Poonia</t>
+  </si>
+  <si>
+    <t>Gujrat</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Shop No D18, Pushp Penament, Behind Mony Hotel, Isanpur, Ahmedabad</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Dr. A.K Pandey (IPS) Malyanil buddha Colony, Patna (Bihar)-800001</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Shillong</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Vishakhapatnam</t>
+  </si>
+  <si>
+    <t>Shop No.8, New Gajuwaka, Opp. High School Road, Vishakhapatnam, Andhra Pradesh-530026</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Shop No:-15 &amp; 16, Pabhat Road, Opp:-Tennis Academy,Zirakpur, Chandigarh, Punjab-140603</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>156A/73, NORTHERN PARK, B.T.ROAD DUNLOP Kolkata-700108</t>
+  </si>
+  <si>
+    <t>Jamshedpur</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Raipur Chattisgarh</t>
+  </si>
+  <si>
+    <t>Bhubaneshwar</t>
+  </si>
+  <si>
+    <t>Acharya Vihar-Jaydev Vihar rd, Bhubaneshwar ,Odisha, India</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Professional Logistics Pvt.Ltd</t>
+  </si>
+  <si>
+    <t>Nagpur,Maharashtra</t>
+  </si>
+  <si>
+    <t>Asansol</t>
+  </si>
+  <si>
+    <t>Shop No-4 Asansol Station Bus Stand Road, Munshi Bazar, Asansol, West Bengal 713301</t>
+  </si>
+  <si>
+    <t>Secunderabad</t>
+  </si>
+  <si>
+    <t>Shop No.-4,Block-3,4th Shatter at 179, MPR Estates Near Old Check Post Old Bowenpally Secunderabad,Hyderabad-500011</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Dharamshala</t>
+  </si>
+  <si>
+    <t>Dharamshala, Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Jammu &amp; Kashmir</t>
+  </si>
+  <si>
+    <t>Jammu</t>
+  </si>
+  <si>
+    <t>Jammu, Jammu &amp; Kashmir</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Cochin</t>
+  </si>
+  <si>
+    <t>Cochin, Kerala</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Rudrapur</t>
+  </si>
+  <si>
+    <t>Rudrapur, Uttarakhand</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Sr. No</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>States</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Location</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Logistic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Address</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TOLL FREE NUMBER</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Rangpuri</t>
-  </si>
-  <si>
-    <t>Professional Logistics Pvt.Ltd.</t>
-  </si>
-  <si>
-    <t>198, G/F Malikpur Kohi, Next to hero honda Service Station, Rangpuri, Mahipalpur EXT. New Delhi, Delhi – 110037</t>
-  </si>
-  <si>
-    <t>1800-102-5679</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>Gurugram</t>
-  </si>
-  <si>
-    <t>J-171, New Palam Vihar Phase-1, Gurgaon, Gurugram, Haryana 122017</t>
-  </si>
-  <si>
-    <t>Jharkhand</t>
-  </si>
-  <si>
-    <t>Dhanbad</t>
-  </si>
-  <si>
-    <t>Sardar Patel Nagar, Dhanbad, Jharkhand – 826004</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>Noida</t>
-  </si>
-  <si>
-    <t>BH-122, Sector -70, Noida, Uttar Pradesh 201301</t>
-  </si>
-  <si>
-    <t>Manipur</t>
-  </si>
-  <si>
-    <t>Zonal office: HN-34 Kundli Nagar Basistha Chariali, Near Parbhat Apartment, Guwahati-781029</t>
-  </si>
-  <si>
-    <t>Contact: Rajkumar Puniya</t>
-  </si>
-  <si>
-    <t>info@packersmovers.com</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Plot-92,gala no.-01,Sector 19C Vashi Navi, Mumbai -400705</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Plot No-24,Sec No-4, Shikshak Colony, Near Spine City, Moshi Pradhikaran, Pune – 412105</t>
-  </si>
-  <si>
-    <t>Odisha</t>
-  </si>
-  <si>
-    <t>Cuttack</t>
-  </si>
-  <si>
-    <t>1st Floor Deltahouse, Rajendra Nagar, Madhupatna Cuttack, Bhubaneshwar</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>4, Block-3, 4th Shatter at 179, MPR Estates near Old check post Old Bowaenpally Secunderabad, Hyderabad – 50011</t>
-  </si>
-  <si>
-    <t>Arunachal Pradesh</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>No.43 1st Floor 2nd main D.D.U.T.T.L. Yeshwantpur, Bangalore – 560022</t>
-  </si>
-  <si>
-    <t>Mangalore</t>
-  </si>
-  <si>
-    <t>Opp. Hindustan Lever Ltd, Sulthan, Bhathery road Boloor Mangalore (KA)-575003</t>
-  </si>
-  <si>
-    <t>Ranchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranchi, </t>
-  </si>
-  <si>
-    <t># 9810053907,9312377788</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>27, Sakthi Nagar Phase II, Sennerkuppam, Near Bisleri Water Plant, Chennai – 60056</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Jaipur</t>
-  </si>
-  <si>
-    <t>A-81, 200 ft. By Pass, Heerapura, Jaipur, rajasthan – 302021</t>
-  </si>
-  <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
-    <t>Bokaro</t>
-  </si>
-  <si>
-    <t>Assam</t>
-  </si>
-  <si>
-    <t>Guwahati</t>
-  </si>
-  <si>
-    <t>HN-34 Kundli Nagar Basistha Chariali, Near Parbhat Apartment, Guwahati-781029</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
-    <t>Lucknow</t>
-  </si>
-  <si>
-    <t>S-317, Transport Nagar, Behind RTO Office, Lucknow, Uttar Pradesh 226012</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>Indore</t>
-  </si>
-  <si>
-    <t>284 AS-3 Scheme No – 78,vijay nagar Indore, Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>West Bengal</t>
-  </si>
-  <si>
-    <t>Siliguri</t>
-  </si>
-  <si>
-    <t>Rajkumar Poonia</t>
-  </si>
-  <si>
-    <t>Gujrat</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>Shop No D18, Pushp Penament, Behind Mony Hotel, Isanpur, Ahmedabad</t>
-  </si>
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>Patna</t>
-  </si>
-  <si>
-    <t>Dr. A.K Pandey (IPS) Malyanil buddha Colony, Patna (Bihar)-800001</t>
-  </si>
-  <si>
-    <t>Nagaland</t>
-  </si>
-  <si>
-    <t>Meghalaya</t>
-  </si>
-  <si>
-    <t>Shillong</t>
-  </si>
-  <si>
-    <t>Mizoram</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Vishakhapatnam</t>
-  </si>
-  <si>
-    <t>Shop No.8, New Gajuwaka, Opp. High School Road, Vishakhapatnam, Andhra Pradesh-530026</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>Shop No:-15 &amp; 16, Pabhat Road, Opp:-Tennis Academy,Zirakpur, Chandigarh, Punjab-140603</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>156A/73, NORTHERN PARK, B.T.ROAD DUNLOP Kolkata-700108</t>
-  </si>
-  <si>
-    <t>Jamshedpur</t>
-  </si>
-  <si>
-    <t>Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Raipur</t>
-  </si>
-  <si>
-    <t>Raipur Chattisgarh</t>
-  </si>
-  <si>
-    <t>Bhubaneshwar</t>
-  </si>
-  <si>
-    <t>Acharya Vihar-Jaydev Vihar rd, Bhubaneshwar ,Odisha, India</t>
-  </si>
-  <si>
-    <t>Nagpur</t>
-  </si>
-  <si>
-    <t>Professional Logistics Pvt.Ltd</t>
-  </si>
-  <si>
-    <t>Nagpur,Maharashtra</t>
-  </si>
-  <si>
-    <t>Asansol</t>
-  </si>
-  <si>
-    <t>Shop No-4 Asansol Station Bus Stand Road, Munshi Bazar, Asansol, West Bengal 713301</t>
-  </si>
-  <si>
-    <t>Secunderabad</t>
-  </si>
-  <si>
-    <t>Shop No.-4,Block-3,4th Shatter at 179, MPR Estates Near Old Check Post Old Bowenpally Secunderabad,Hyderabad-500011</t>
-  </si>
-  <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Himachal Pradesh</t>
-  </si>
-  <si>
-    <t>Dharamshala</t>
-  </si>
-  <si>
-    <t>Dharamshala, Himachal Pradesh</t>
-  </si>
-  <si>
-    <t>Jammu &amp; Kashmir</t>
-  </si>
-  <si>
-    <t>Jammu</t>
-  </si>
-  <si>
-    <t>Jammu, Jammu &amp; Kashmir</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Cochin</t>
-  </si>
-  <si>
-    <t>Cochin, Kerala</t>
-  </si>
-  <si>
-    <t>Uttarakhand</t>
-  </si>
-  <si>
-    <t>Rudrapur</t>
-  </si>
-  <si>
-    <t>Rudrapur, Uttarakhand</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -834,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,22 +852,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.2">
@@ -869,19 +875,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -897,19 +903,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -925,19 +931,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -961,19 +967,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -997,19 +1003,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1018,7 +1024,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -1038,7 +1044,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -1055,19 +1061,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1091,19 +1097,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1127,19 +1133,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1155,19 +1161,19 @@
         <v>9</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1176,7 +1182,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -1196,7 +1202,7 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F28" s="11"/>
     </row>
@@ -1205,19 +1211,19 @@
         <v>10</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1233,19 +1239,19 @@
         <v>11</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1254,7 +1260,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F32" s="10"/>
     </row>
@@ -1274,7 +1280,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F34" s="10"/>
     </row>
@@ -1291,19 +1297,19 @@
         <v>12</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1319,19 +1325,19 @@
         <v>13</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1355,19 +1361,19 @@
         <v>14</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1384,7 +1390,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F43" s="10"/>
     </row>
@@ -1394,7 +1400,7 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F44" s="10"/>
     </row>
@@ -1404,7 +1410,7 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F45" s="10"/>
     </row>
@@ -1421,19 +1427,19 @@
         <v>15</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1457,19 +1463,19 @@
         <v>16</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1493,19 +1499,19 @@
         <v>17</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1514,7 +1520,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F54" s="10"/>
     </row>
@@ -1534,7 +1540,7 @@
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F56" s="10"/>
     </row>
@@ -1551,19 +1557,19 @@
         <v>18</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1587,19 +1593,19 @@
         <v>19</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1623,19 +1629,19 @@
         <v>20</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1644,7 +1650,7 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F65" s="10"/>
     </row>
@@ -1664,7 +1670,7 @@
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F67" s="10"/>
     </row>
@@ -1681,19 +1687,19 @@
         <v>21</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -1717,19 +1723,19 @@
         <v>22</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1753,19 +1759,19 @@
         <v>23</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -1774,7 +1780,7 @@
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F76" s="10"/>
     </row>
@@ -1784,7 +1790,7 @@
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F77" s="10"/>
     </row>
@@ -1794,7 +1800,7 @@
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -1804,7 +1810,7 @@
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F79" s="10"/>
     </row>
@@ -1821,19 +1827,19 @@
         <v>24</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -1857,19 +1863,19 @@
         <v>25</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -1893,19 +1899,19 @@
         <v>26</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -1914,7 +1920,7 @@
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -1934,7 +1940,7 @@
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F90" s="10"/>
     </row>
@@ -2118,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -2134,19 +2140,19 @@
         <v>27</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -2155,7 +2161,7 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -2175,7 +2181,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -2192,19 +2198,19 @@
         <v>28</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -2213,7 +2219,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" s="10"/>
     </row>
@@ -2233,7 +2239,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -2250,19 +2256,19 @@
         <v>29</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2278,19 +2284,19 @@
         <v>30</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2306,19 +2312,19 @@
         <v>31</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2334,19 +2340,19 @@
         <v>32</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -2355,7 +2361,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -2365,7 +2371,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -2375,7 +2381,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -2385,7 +2391,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -2402,19 +2408,19 @@
         <v>33</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2423,7 +2429,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -2433,7 +2439,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F25" s="10"/>
     </row>
@@ -2443,7 +2449,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -2460,19 +2466,19 @@
         <v>34</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2496,19 +2502,19 @@
         <v>35</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -2517,7 +2523,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F32" s="10"/>
     </row>
@@ -2527,7 +2533,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F33" s="10"/>
     </row>
@@ -2537,7 +2543,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F34" s="10"/>
     </row>
@@ -2554,19 +2560,19 @@
         <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2582,19 +2588,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2626,19 +2632,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -2647,7 +2653,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F43" s="10"/>
     </row>
@@ -2657,7 +2663,7 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F44" s="10"/>
     </row>
@@ -2667,7 +2673,7 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F45" s="10"/>
     </row>
@@ -2684,19 +2690,19 @@
         <v>39</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -2705,7 +2711,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F48" s="10"/>
     </row>
@@ -2715,7 +2721,7 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F49" s="10"/>
     </row>
@@ -2725,7 +2731,7 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F50" s="10"/>
     </row>
@@ -2742,19 +2748,19 @@
         <v>40</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -2763,7 +2769,7 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F53" s="10"/>
     </row>
@@ -2773,7 +2779,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F54" s="10"/>
     </row>
@@ -2783,7 +2789,7 @@
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F55" s="10"/>
     </row>
@@ -2800,19 +2806,19 @@
         <v>41</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -2821,7 +2827,7 @@
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F58" s="10"/>
     </row>
@@ -2831,7 +2837,7 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F59" s="10"/>
     </row>
@@ -2841,7 +2847,7 @@
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F60" s="10"/>
     </row>
@@ -2858,19 +2864,19 @@
         <v>42</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -2879,7 +2885,7 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F63" s="10"/>
     </row>
@@ -2889,7 +2895,7 @@
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F64" s="10"/>
     </row>
@@ -2899,7 +2905,7 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F65" s="10"/>
     </row>
